--- a/big-data/big-data-capstone/project/data/beer_n_Edelweiss Cherry & Lavender.xlsx
+++ b/big-data/big-data-capstone/project/data/beer_n_Edelweiss Cherry & Lavender.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vladeath(3,204)
+          <t>vladeath(3,214)
 🇷🇺Russia
 2.8May 14, 2022
 Cherry harmoniously fit into the banana-clove (albeit mass market) aroma. The taste also acquired a certain peculiarity in cherry sourness. I will pay tribute, they perfectly mixed…
